--- a/SJTUThesis-master/excel/seq.xlsx
+++ b/SJTUThesis-master/excel/seq.xlsx
@@ -739,7 +739,7 @@
             <c:v>HDD</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -748,8 +748,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -758,6 +758,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -866,7 +867,7 @@
             <c:v>flashcache</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -875,8 +876,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -885,6 +886,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -946,7 +948,7 @@
             <c:v>bio-qscache</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -955,8 +957,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -965,6 +967,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent3"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1026,7 +1029,7 @@
             <c:v>request-qscache</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -1035,16 +1038,15 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent4"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1109,16 +1111,30 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="283594528"/>
-        <c:axId val="283596208"/>
+        <c:axId val="54178064"/>
+        <c:axId val="54178624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="283594528"/>
+        <c:axId val="54178064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1126,7 +1142,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1139,7 +1155,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:rPr lang="zh-CN"/>
                   <a:t>块大小</a:t>
                 </a:r>
               </a:p>
@@ -1159,7 +1175,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1197,7 +1213,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1212,7 +1228,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="283596208"/>
+        <c:crossAx val="54178624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1220,26 +1236,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="283596208"/>
+        <c:axId val="54178624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1247,7 +1249,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1260,14 +1262,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:rPr lang="zh-CN"/>
                   <a:t>吞吐量</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>(KB/s)</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1285,7 +1287,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1307,8 +1309,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1332,7 +1340,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="283594528"/>
+        <c:crossAx val="54178064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1345,7 +1353,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1382,7 +1390,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -1440,7 +1448,7 @@
             <c:v>HDD</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1449,8 +1457,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -1459,6 +1467,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1567,7 +1576,7 @@
             <c:v>flashcache</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -1576,8 +1585,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -1586,6 +1595,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1647,7 +1657,7 @@
             <c:v>bio-qscache</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -1656,8 +1666,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -1666,6 +1676,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent3"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1727,7 +1738,7 @@
             <c:v>request-qscache</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -1736,16 +1747,15 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent4"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1810,16 +1820,30 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="408592560"/>
-        <c:axId val="408592000"/>
+        <c:axId val="124739392"/>
+        <c:axId val="124739952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="408592560"/>
+        <c:axId val="124739392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1827,7 +1851,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1840,7 +1864,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:rPr lang="zh-CN"/>
                   <a:t>块大小</a:t>
                 </a:r>
               </a:p>
@@ -1860,7 +1884,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1898,7 +1922,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1913,7 +1937,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408592000"/>
+        <c:crossAx val="124739952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1921,26 +1945,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="408592000"/>
+        <c:axId val="124739952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1948,7 +1958,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1961,14 +1971,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:rPr lang="zh-CN"/>
                   <a:t>吞吐量</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>(KB/s)</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1986,7 +1996,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2008,8 +2018,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2033,7 +2049,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408592560"/>
+        <c:crossAx val="124739392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2046,7 +2062,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2083,7 +2099,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -2195,7 +2211,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2206,7 +2222,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -2229,18 +2245,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -2252,7 +2268,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2260,11 +2276,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -2296,35 +2312,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2336,30 +2362,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2381,15 +2411,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2404,10 +2432,46 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -2415,67 +2479,128 @@
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2488,54 +2613,17 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -2545,8 +2633,8 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
+  </cs:seriesLine>
+  <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2556,66 +2644,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2624,14 +2653,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2645,7 +2674,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -2661,8 +2690,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2678,6 +2707,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2685,20 +2725,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2709,7 +2743,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -2732,18 +2766,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -2755,7 +2789,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2763,11 +2797,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -2799,35 +2833,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2839,30 +2883,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2884,15 +2932,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2907,10 +2953,46 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -2918,67 +3000,128 @@
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2991,54 +3134,17 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -3048,8 +3154,8 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
+  </cs:seriesLine>
+  <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -3059,66 +3165,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3127,14 +3174,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3148,7 +3195,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -3164,8 +3211,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3181,6 +3228,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3188,14 +3246,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3234,16 +3286,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>496200</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>84450</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>667650</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>160650</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3530,8 +3582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
